--- a/admin/public/locales/multilanguage.xlsx
+++ b/admin/public/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>标记</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>详情</t>
+  </si>
+  <si>
+    <t>all_token</t>
+  </si>
+  <si>
+    <t>All Tokens</t>
+  </si>
+  <si>
+    <t>所有纪念币</t>
   </si>
 </sst>
 </file>
@@ -511,9 +520,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -533,14 +542,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,7 +581,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,22 +625,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,90 +672,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -691,13 +700,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,163 +832,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,19 +891,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +917,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,9 +968,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,23 +980,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,124 +990,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,22 +1116,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,10 +1473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -2083,6 +2092,17 @@
         <v>162</v>
       </c>
     </row>
+    <row r="56" ht="18" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/admin/public/locales/multilanguage.xlsx
+++ b/admin/public/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272">
   <si>
     <t>标记</t>
   </si>
@@ -34,154 +34,157 @@
     <t>地址已经复制</t>
   </si>
   <si>
-    <t>noWallet</t>
-  </si>
-  <si>
-    <t>No Ethereum wallet found</t>
+    <t>all_token</t>
+  </si>
+  <si>
+    <t>All Tokens</t>
+  </si>
+  <si>
+    <t>所有纪念币</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>click_share</t>
+  </si>
+  <si>
+    <t>Click to share</t>
+  </si>
+  <si>
+    <t>点击分享</t>
+  </si>
+  <si>
+    <t>coin_description</t>
+  </si>
+  <si>
+    <t>Commemorative coins of NaturalDAO</t>
+  </si>
+  <si>
+    <t>自然道纪念币</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>Connect</t>
   </si>
   <si>
     <t>未发现以太钱包</t>
   </si>
   <si>
-    <t>connect</t>
-  </si>
-  <si>
-    <t>Connect</t>
-  </si>
-  <si>
-    <t>switchNetwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please switch to </t>
-  </si>
-  <si>
-    <t>请切换到</t>
-  </si>
-  <si>
-    <t>unknownError</t>
-  </si>
-  <si>
-    <t>Oops! An unknown error occurred. Please refresh the page, or visit from another browser or device.</t>
-  </si>
-  <si>
-    <t>发生了未知错误，请刷新浏览器或者使用另一个浏览器访问</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>Send</t>
-  </si>
-  <si>
-    <t>赠送</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>出售</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>coin_description</t>
-  </si>
-  <si>
-    <t>Commemorative coins of NaturalDAO</t>
-  </si>
-  <si>
-    <t>自然道纪念币</t>
-  </si>
-  <si>
-    <t>installWeb3MobileBrowser</t>
-  </si>
-  <si>
-    <t>Please visit us from a web3-enabled mobile browser such as Trust Wallet, pillar. or Coinbase Wallet.</t>
-  </si>
-  <si>
-    <t>请从带 web3 浏览器的钱包，如imToken或币安的 Trust Wallet 钱包访问。</t>
-  </si>
-  <si>
-    <t>installMetamask</t>
-  </si>
-  <si>
-    <t>Please visit us after installing Metamask on Chrome or Brave.</t>
-  </si>
-  <si>
-    <t>请从安装了 Metamask 插件的谷歌或 Brave 浏览器访问。</t>
-  </si>
-  <si>
-    <t>token_detail</t>
+    <t>contract_null</t>
+  </si>
+  <si>
+    <t>Contract is not init</t>
+  </si>
+  <si>
+    <t>合约还未初始化，请稍候</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>创建</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>Creating date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>create_token</t>
+  </si>
+  <si>
+    <t>Create A Token</t>
+  </si>
+  <si>
+    <t>创建纪念币</t>
+  </si>
+  <si>
+    <t>create_token_description</t>
+  </si>
+  <si>
+    <t>Here you can setup and create a token</t>
+  </si>
+  <si>
+    <t>此处进行纪念币的创建</t>
+  </si>
+  <si>
+    <t>create_token_success</t>
+  </si>
+  <si>
+    <t>Token is created successfully</t>
+  </si>
+  <si>
+    <t>纪念币创建成功</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>创建者</t>
+  </si>
+  <si>
+    <t>creator_address</t>
+  </si>
+  <si>
+    <t>The address of creator</t>
+  </si>
+  <si>
+    <t>创建者地址</t>
+  </si>
+  <si>
+    <t>detail</t>
   </si>
   <si>
     <t>Detail</t>
   </si>
   <si>
-    <t>纪念币详情</t>
-  </si>
-  <si>
-    <t>my_token</t>
-  </si>
-  <si>
-    <t>Mine</t>
-  </si>
-  <si>
-    <t>我的纪念币</t>
-  </si>
-  <si>
-    <t>latest_token</t>
-  </si>
-  <si>
-    <t>Latest</t>
-  </si>
-  <si>
-    <t>最新纪念币</t>
-  </si>
-  <si>
-    <t>transaction_send_success</t>
-  </si>
-  <si>
-    <t>Transaction is sent successfully</t>
-  </si>
-  <si>
-    <t>交易发送成功</t>
-  </si>
-  <si>
-    <t>mint_token_description</t>
-  </si>
-  <si>
-    <t>Here you can purchase commemorative coins</t>
-  </si>
-  <si>
-    <t>此处可以购买纪念币</t>
-  </si>
-  <si>
-    <t>is_getting</t>
-  </si>
-  <si>
-    <t>Retrieving</t>
-  </si>
-  <si>
-    <t>正在获取中</t>
-  </si>
-  <si>
-    <t>owned_token</t>
-  </si>
-  <si>
-    <t>A total of {tokencount} commemorative coins</t>
-  </si>
-  <si>
-    <t>共有{tokencount}个纪念币</t>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>error_maxLimit</t>
+  </si>
+  <si>
+    <t>Input a valid maximum of  token</t>
+  </si>
+  <si>
+    <t>请输入正确的发行总量</t>
+  </si>
+  <si>
+    <t>error_price</t>
+  </si>
+  <si>
+    <t>Input a valid price of  token</t>
+  </si>
+  <si>
+    <t>请输入正确的发行价格</t>
+  </si>
+  <si>
+    <t>error_svg</t>
+  </si>
+  <si>
+    <t>Select a valid format of svg file</t>
+  </si>
+  <si>
+    <t>SVG图标格式不正确</t>
   </si>
   <si>
     <t>has_token</t>
@@ -194,6 +197,345 @@
     <t>共有{tokencount}种纪念币</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>input_beneficiary_address</t>
+  </si>
+  <si>
+    <t>Input th address of beneficiary</t>
+  </si>
+  <si>
+    <t>请输入收益人地址</t>
+  </si>
+  <si>
+    <t>input_buy_limit</t>
+  </si>
+  <si>
+    <t>Input the maximum of sold tokens</t>
+  </si>
+  <si>
+    <t>请输入出售总量（须小于发行总量）</t>
+  </si>
+  <si>
+    <t>input_null</t>
+  </si>
+  <si>
+    <t>The input text can't be null</t>
+  </si>
+  <si>
+    <t>输入不能为空</t>
+  </si>
+  <si>
+    <t>input_token_logo</t>
+  </si>
+  <si>
+    <t>Select a logo of  token(SVG)</t>
+  </si>
+  <si>
+    <t>请选择纪念币图标（SVG格式）</t>
+  </si>
+  <si>
+    <t>input_token_maxLimit</t>
+  </si>
+  <si>
+    <t>Input the maximum of minted tokens (zero means unlimited)</t>
+  </si>
+  <si>
+    <t>请输入发行总量（0代表无总量限制）</t>
+  </si>
+  <si>
+    <t>input_token_price</t>
+  </si>
+  <si>
+    <t>Input the price of  token</t>
+  </si>
+  <si>
+    <t>请输入纪念币发行价格</t>
+  </si>
+  <si>
+    <t>installMetamask</t>
+  </si>
+  <si>
+    <t>Please visit us after installing Metamask on Chrome or Brave.</t>
+  </si>
+  <si>
+    <t>请从安装了 Metamask 插件的谷歌或 Brave 浏览器访问。</t>
+  </si>
+  <si>
+    <t>installWeb3MobileBrowser</t>
+  </si>
+  <si>
+    <t>Please visit us from a web3-enabled mobile browser such as Trust Wallet, pillar. or Coinbase Wallet.</t>
+  </si>
+  <si>
+    <t>请从带 web3 浏览器的钱包，如imToken或币安的 Trust Wallet 钱包访问。</t>
+  </si>
+  <si>
+    <t>invalid_address</t>
+  </si>
+  <si>
+    <t>Invalid address</t>
+  </si>
+  <si>
+    <t>无效的地址</t>
+  </si>
+  <si>
+    <t>invalid_input</t>
+  </si>
+  <si>
+    <t>The input text is invalid</t>
+  </si>
+  <si>
+    <t>输入内容不合法</t>
+  </si>
+  <si>
+    <t>invalid_username_password</t>
+  </si>
+  <si>
+    <t>username or password error</t>
+  </si>
+  <si>
+    <t>用户名密码错误</t>
+  </si>
+  <si>
+    <t>is_getting</t>
+  </si>
+  <si>
+    <t>Retrieving</t>
+  </si>
+  <si>
+    <t>正在获取中</t>
+  </si>
+  <si>
+    <t>issue_org</t>
+  </si>
+  <si>
+    <t>Issuing organization</t>
+  </si>
+  <si>
+    <t>发行组织</t>
+  </si>
+  <si>
+    <t>latest_token</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>最新纪念币</t>
+  </si>
+  <si>
+    <t>mint_token_description</t>
+  </si>
+  <si>
+    <t>Here you can purchase commemorative coins</t>
+  </si>
+  <si>
+    <t>此处可以购买纪念币</t>
+  </si>
+  <si>
+    <t>multi_receipent</t>
+  </si>
+  <si>
+    <t>Please enter the address of recipient</t>
+  </si>
+  <si>
+    <t>请输入接收者地址，多个地址请用英文逗号隔开</t>
+  </si>
+  <si>
+    <t>my_owned_token</t>
+  </si>
+  <si>
+    <t>My commemorative coins</t>
+  </si>
+  <si>
+    <t>我拥有的纪念币</t>
+  </si>
+  <si>
+    <t>my_token</t>
+  </si>
+  <si>
+    <t>Mine</t>
+  </si>
+  <si>
+    <t>我的纪念币</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>NaturalDao</t>
+  </si>
+  <si>
+    <t>NaturalDAO</t>
+  </si>
+  <si>
+    <t>自然道</t>
+  </si>
+  <si>
+    <t>no_token</t>
+  </si>
+  <si>
+    <t>No commemorative coin is  found</t>
+  </si>
+  <si>
+    <t>当前类型的纪念币不存在</t>
+  </si>
+  <si>
+    <t>noWallet</t>
+  </si>
+  <si>
+    <t>No Ethereum wallet found</t>
+  </si>
+  <si>
+    <t>owned_token</t>
+  </si>
+  <si>
+    <t>A total of {tokencount} commemorative coins</t>
+  </si>
+  <si>
+    <t>共有{tokencount}个纪念币</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>处理中...</t>
+  </si>
+  <si>
+    <t>token_price</t>
+  </si>
+  <si>
+    <t>The price of commemorative coin</t>
+  </si>
+  <si>
+    <t>纪念币价格</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>purchase_failed</t>
+  </si>
+  <si>
+    <t>Purchase failed</t>
+  </si>
+  <si>
+    <t>购买失败</t>
+  </si>
+  <si>
+    <t>purchase_success</t>
+  </si>
+  <si>
+    <t>Purchase successfully</t>
+  </si>
+  <si>
+    <t>购买成功</t>
+  </si>
+  <si>
+    <t>query_first</t>
+  </si>
+  <si>
+    <t>Please query the commemorative coins first</t>
+  </si>
+  <si>
+    <t>请先查询纪念币</t>
+  </si>
+  <si>
+    <t>receive_simple_token</t>
+  </si>
+  <si>
+    <t>Receive a commemorative coin</t>
+  </si>
+  <si>
+    <t>您收到一个纪念币</t>
+  </si>
+  <si>
+    <t>remember_me</t>
+  </si>
+  <si>
+    <t>Remember me</t>
+  </si>
+  <si>
+    <t>记住我</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>self_purchase</t>
+  </si>
+  <si>
+    <t>Purchase a commemorative coin</t>
+  </si>
+  <si>
+    <t>纪念币购买</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>出售</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>赠送</t>
+  </si>
+  <si>
+    <t>send_self</t>
+  </si>
+  <si>
+    <t>Can't send self</t>
+  </si>
+  <si>
+    <t>不能送给自己</t>
+  </si>
+  <si>
     <t>send_simple_token_success</t>
   </si>
   <si>
@@ -203,112 +545,82 @@
     <t>发送纪念币成功</t>
   </si>
   <si>
-    <t>receive_simple_token</t>
-  </si>
-  <si>
-    <t>Receive a commemorative coin</t>
-  </si>
-  <si>
-    <t>您收到一个纪念币</t>
-  </si>
-  <si>
-    <t>invalid_address</t>
-  </si>
-  <si>
-    <t>Invalid address</t>
-  </si>
-  <si>
-    <t>无效的地址</t>
-  </si>
-  <si>
-    <t>send_self</t>
-  </si>
-  <si>
-    <t>Can't send self</t>
-  </si>
-  <si>
-    <t>不能送给自己</t>
-  </si>
-  <si>
-    <t>input_null</t>
-  </si>
-  <si>
-    <t>The input text can't be null</t>
-  </si>
-  <si>
-    <t>输入不能为空</t>
-  </si>
-  <si>
-    <t>contract_null</t>
-  </si>
-  <si>
-    <t>Contract is not init</t>
-  </si>
-  <si>
-    <t>合约还未初始化，请稍候</t>
-  </si>
-  <si>
-    <t>invalid_input</t>
-  </si>
-  <si>
-    <t>The input text is invalid</t>
-  </si>
-  <si>
-    <t>输入内容不合法</t>
-  </si>
-  <si>
-    <t>input_recipient</t>
-  </si>
-  <si>
-    <t>Input the address of recipient</t>
-  </si>
-  <si>
-    <t>请输入接收人地址</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
     <t>send_token</t>
   </si>
   <si>
-    <t>Send #{id}  commemorative coins</t>
-  </si>
-  <si>
-    <t>赠送 #{id} 号纪念币</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>Creating date</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>token_title</t>
-  </si>
-  <si>
-    <t>Title of commemorative coin</t>
-  </si>
-  <si>
-    <t>纪念币标题</t>
+    <t>Send token to multi address</t>
+  </si>
+  <si>
+    <t>批量赠送纪念币</t>
+  </si>
+  <si>
+    <t>sign_in</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>switchNetwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please switch to </t>
+  </si>
+  <si>
+    <t>请切换到</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>token_descrip</t>
+  </si>
+  <si>
+    <t>The description of commemorative coin</t>
+  </si>
+  <si>
+    <t>纪念币简介</t>
+  </si>
+  <si>
+    <t>token_detail</t>
+  </si>
+  <si>
+    <t>纪念币详情</t>
+  </si>
+  <si>
+    <t>token_issue</t>
+  </si>
+  <si>
+    <t>The amount of commemorative coins</t>
+  </si>
+  <si>
+    <t>已发行数量</t>
+  </si>
+  <si>
+    <t>token_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum fo commemorative coins </t>
+  </si>
+  <si>
+    <t>计划发行总量</t>
+  </si>
+  <si>
+    <t>token_name</t>
+  </si>
+  <si>
+    <t>The name of commemorative coin</t>
+  </si>
+  <si>
+    <t>纪念币名称</t>
   </si>
   <si>
     <t>token_type_id</t>
@@ -320,13 +632,22 @@
     <t>纪念币编号</t>
   </si>
   <si>
-    <t>no_token</t>
-  </si>
-  <si>
-    <t>No commemorative coin is  found</t>
-  </si>
-  <si>
-    <t>当前类型的纪念币不存在</t>
+    <t>transaction_send_success</t>
+  </si>
+  <si>
+    <t>Transaction is sent successfully</t>
+  </si>
+  <si>
+    <t>交易发送成功</t>
+  </si>
+  <si>
+    <t>unknownError</t>
+  </si>
+  <si>
+    <t>Oops! An unknown error occurred. Please refresh the page, or visit from another browser or device.</t>
+  </si>
+  <si>
+    <t>发生了未知错误，请刷新浏览器或者使用另一个浏览器访问</t>
   </si>
   <si>
     <t>url_copied</t>
@@ -338,181 +659,178 @@
     <t>链接已经复制</t>
   </si>
   <si>
-    <t>click_share</t>
-  </si>
-  <si>
-    <t>Click to share</t>
-  </si>
-  <si>
-    <t>点击分享</t>
-  </si>
-  <si>
-    <t>creator_address</t>
-  </si>
-  <si>
-    <t>The address of creator</t>
-  </si>
-  <si>
-    <t>创建者地址</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
-    <t>创建者</t>
-  </si>
-  <si>
-    <t>token_descrip</t>
-  </si>
-  <si>
-    <t>The description of commemorative coin</t>
-  </si>
-  <si>
-    <t>纪念币简介</t>
-  </si>
-  <si>
-    <t>token_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum fo commemorative coins </t>
-  </si>
-  <si>
-    <t>计划发行总量</t>
-  </si>
-  <si>
-    <t>token_issue</t>
-  </si>
-  <si>
-    <t>The amount of commemorative coins</t>
-  </si>
-  <si>
-    <t>已发行数量</t>
-  </si>
-  <si>
-    <t>price_token</t>
-  </si>
-  <si>
-    <t>The price of commemorative coin</t>
-  </si>
-  <si>
-    <t>纪念币价格</t>
-  </si>
-  <si>
-    <t>self_purchase</t>
-  </si>
-  <si>
-    <t>Purchase a commemorative coin</t>
-  </si>
-  <si>
-    <t>纪念币购买</t>
-  </si>
-  <si>
-    <t>multi_receipent</t>
-  </si>
-  <si>
-    <t>Please enter the address of recipient</t>
-  </si>
-  <si>
-    <t>请输入接收者地址</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>购买</t>
-  </si>
-  <si>
-    <t>query_first</t>
-  </si>
-  <si>
-    <t>Please query the commemorative coins first</t>
-  </si>
-  <si>
-    <t>请先查询纪念币</t>
-  </si>
-  <si>
-    <t>purchase_success</t>
-  </si>
-  <si>
-    <t>Purchase successfully</t>
-  </si>
-  <si>
-    <t>购买成功</t>
-  </si>
-  <si>
-    <t>issue_org</t>
-  </si>
-  <si>
-    <t>Issuing organization</t>
-  </si>
-  <si>
-    <t>发行组织</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>my_owned_token</t>
-  </si>
-  <si>
-    <t>My commemorative coins</t>
-  </si>
-  <si>
-    <t>我拥有的纪念币</t>
-  </si>
-  <si>
-    <t>NaturalDao</t>
-  </si>
-  <si>
-    <t>NaturalDAO</t>
-  </si>
-  <si>
-    <t>自然道</t>
-  </si>
-  <si>
-    <t>purchase_failed</t>
-  </si>
-  <si>
-    <t>Purchase failed</t>
-  </si>
-  <si>
-    <t>购买失败</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>处理中...</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>详情</t>
-  </si>
-  <si>
-    <t>all_token</t>
-  </si>
-  <si>
-    <t>All Tokens</t>
-  </si>
-  <si>
-    <t>所有纪念币</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>owner_admin</t>
+  </si>
+  <si>
+    <t>Transfer Owner</t>
+  </si>
+  <si>
+    <t>转让管理员</t>
+  </si>
+  <si>
+    <t>owner_address</t>
+  </si>
+  <si>
+    <t>The address of current owner</t>
+  </si>
+  <si>
+    <t>当前管理员地址</t>
+  </si>
+  <si>
+    <t>input_new_owner</t>
+  </si>
+  <si>
+    <t>The address of new owner</t>
+  </si>
+  <si>
+    <t>新管理员地址</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>转让</t>
+  </si>
+  <si>
+    <t>token_limit</t>
+  </si>
+  <si>
+    <t>纪念币发行总量</t>
+  </si>
+  <si>
+    <t>token_amount</t>
+  </si>
+  <si>
+    <t>纪念币已发行数量</t>
+  </si>
+  <si>
+    <t>token_buyLimit</t>
+  </si>
+  <si>
+    <t>The maximum fo commemorative coins being sold</t>
+  </si>
+  <si>
+    <t>纪念币出售总量</t>
+  </si>
+  <si>
+    <t>token_buyAmount</t>
+  </si>
+  <si>
+    <t>The amount fo commemorative coins being sold</t>
+  </si>
+  <si>
+    <t>纪念币已售出数量</t>
+  </si>
+  <si>
+    <t>token_beneficiary</t>
+  </si>
+  <si>
+    <t>The address of beneficiary</t>
+  </si>
+  <si>
+    <t>纪念币收益人地址</t>
+  </si>
+  <si>
+    <t>token_baseURI</t>
+  </si>
+  <si>
+    <t>The baseURI of metadata to a token</t>
+  </si>
+  <si>
+    <t>纪念币元数据基础URI</t>
+  </si>
+  <si>
+    <t>change_price</t>
+  </si>
+  <si>
+    <t>Change the price of token</t>
+  </si>
+  <si>
+    <t>更改纪念币价格</t>
+  </si>
+  <si>
+    <t>new_price</t>
+  </si>
+  <si>
+    <t>Input the new price of token</t>
+  </si>
+  <si>
+    <t>输入新价格</t>
+  </si>
+  <si>
+    <t>change_baseURI</t>
+  </si>
+  <si>
+    <t>Change the baseURI of token</t>
+  </si>
+  <si>
+    <t>更改纪念币元数据基础URI</t>
+  </si>
+  <si>
+    <t>new_baseURI</t>
+  </si>
+  <si>
+    <t>Input the new baseURI of token</t>
+  </si>
+  <si>
+    <t>输入新元数据基础URI</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>update_price_success</t>
+  </si>
+  <si>
+    <t>Update the price of token successfully</t>
+  </si>
+  <si>
+    <t>价格更新成功</t>
+  </si>
+  <si>
+    <t>update_uri_success</t>
+  </si>
+  <si>
+    <t>Update the baseURI of token successfully</t>
+  </si>
+  <si>
+    <t>新元数据基础URI更新成功</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>无限制</t>
+  </si>
+  <si>
+    <t>token_sendAmount</t>
+  </si>
+  <si>
+    <t>Amount of tokens that can be send</t>
+  </si>
+  <si>
+    <t>剩余可赠送纪念币数量</t>
   </si>
 </sst>
 </file>
@@ -521,11 +839,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,24 +859,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +889,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,10 +933,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,17 +949,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +966,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,21 +995,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -672,14 +1004,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,31 +1019,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,151 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,8 +1216,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,6 +1227,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,6 +1270,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -932,21 +1292,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,177 +1310,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,8 +1476,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1473,10 +1813,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1524,440 +1864,440 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" ht="18" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="36" spans="1:3">
-      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" ht="18" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" ht="18" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" ht="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" ht="18" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>55</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="36" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" ht="18" spans="1:3">
-      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" ht="18" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="C22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="C24" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" ht="18" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C25" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" ht="18" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="C26" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" ht="18" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="18" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" ht="18" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" ht="36" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" ht="18" spans="1:3">
-      <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>88</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" ht="18" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="18" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>94</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" ht="18" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" ht="18" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="B34" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" ht="18" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="18" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="18" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="18" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" ht="18" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="18" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="18" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="18" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="18" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="18" spans="1:3">
@@ -1971,14 +2311,14 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" ht="18" spans="1:3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2016,10 +2356,10 @@
       </c>
     </row>
     <row r="49" ht="18" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2052,32 +2392,32 @@
       <c r="A52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" ht="18" spans="1:3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="54" ht="18" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2086,24 +2426,428 @@
         <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="18" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" ht="18" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" ht="18" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" ht="18" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" ht="18" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" ht="18" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" ht="18" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" ht="18" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" ht="18" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" ht="18" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" ht="18" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" ht="18" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" ht="18" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" ht="18" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" ht="18" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" ht="18" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" ht="22" spans="1:3">
+      <c r="A82" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" ht="22" spans="1:3">
+      <c r="A83" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" ht="18" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" ht="18" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" ht="18" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" ht="18" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" ht="18" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" ht="18" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" ht="18" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93" ht="22" spans="1:3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C75">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/admin/public/locales/multilanguage.xlsx
+++ b/admin/public/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>标记</t>
   </si>
@@ -621,6 +621,15 @@
   </si>
   <si>
     <t>用户名</t>
+  </si>
+  <si>
+    <t>change_icon</t>
+  </si>
+  <si>
+    <t>Change the icon of token</t>
+  </si>
+  <si>
+    <t>更改纪念币图标(SVG)</t>
   </si>
 </sst>
 </file>
@@ -628,12 +637,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -644,20 +653,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -677,8 +672,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -693,6 +695,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -700,16 +703,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,61 +781,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,21 +801,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -828,43 +823,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,25 +949,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,31 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,61 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,8 +1008,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,8 +1017,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,22 +1038,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,6 +1068,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1092,172 +1102,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,13 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,10 +1608,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -2345,7 +2334,7 @@
       <c r="A60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>176</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -2366,13 +2355,13 @@
       <c r="D61" s="1"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2436,22 +2425,31 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="10" t="s">
+    <row r="68" ht="18" spans="1:4">
+      <c r="A68" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" ht="22" spans="1:3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+    <row r="69" ht="18" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A1:C92">

--- a/admin/public/locales/multilanguage.xlsx
+++ b/admin/public/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>标记</t>
   </si>
@@ -630,6 +630,15 @@
   </si>
   <si>
     <t>更改纪念币图标(SVG)</t>
+  </si>
+  <si>
+    <t>label_absence</t>
+  </si>
+  <si>
+    <t>Some essential labels are absent in the code of svg</t>
+  </si>
+  <si>
+    <t>SVG中缺乏必要的标签</t>
   </si>
 </sst>
 </file>
@@ -638,8 +647,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -659,6 +668,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -672,15 +688,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -695,14 +704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -712,32 +713,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,8 +742,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +757,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -780,27 +804,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -829,169 +838,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,6 +1027,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1039,56 +1089,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1102,157 +1102,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,9 +1291,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1611,7 +1617,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -2355,13 +2361,13 @@
       <c r="D61" s="1"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2437,7 +2443,7 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" ht="18" spans="1:3">
+    <row r="69" ht="18" spans="1:4">
       <c r="A69" s="3" t="s">
         <v>202</v>
       </c>
@@ -2447,9 +2453,19 @@
       <c r="C69" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" ht="18" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:C92">

--- a/admin/public/locales/multilanguage.xlsx
+++ b/admin/public/locales/multilanguage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>标记</t>
   </si>
@@ -639,6 +639,57 @@
   </si>
   <si>
     <t>SVG中缺乏必要的标签</t>
+  </si>
+  <si>
+    <t>empty_issuer</t>
+  </si>
+  <si>
+    <t>The issuer is empty</t>
+  </si>
+  <si>
+    <t>发行组织为空</t>
+  </si>
+  <si>
+    <t>err_get_ethPrice</t>
+  </si>
+  <si>
+    <t>Error raise while getting the price of ETH</t>
+  </si>
+  <si>
+    <t>获取ETH价格出错</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>is_lock</t>
+  </si>
+  <si>
+    <t>The icon of token isLock</t>
+  </si>
+  <si>
+    <t>是否锁定ICON</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>锁定</t>
+  </si>
+  <si>
+    <t>token_repu</t>
+  </si>
+  <si>
+    <t>The value of commemoration</t>
+  </si>
+  <si>
+    <t>纪念值</t>
   </si>
 </sst>
 </file>
@@ -646,10 +697,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -668,7 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,9 +733,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,6 +755,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -704,17 +779,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,70 +810,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,6 +830,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -826,13 +877,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,19 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,139 +1039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,74 +1067,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,153 +1099,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,10 +1665,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -2467,6 +2518,72 @@
       </c>
       <c r="D70" s="1"/>
     </row>
+    <row r="71" ht="18" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" ht="18" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:C92">
     <sortCondition ref="A2"/>

--- a/admin/public/locales/multilanguage.xlsx
+++ b/admin/public/locales/multilanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -686,10 +686,10 @@
     <t>token_repu</t>
   </si>
   <si>
-    <t>The value of commemoration</t>
-  </si>
-  <si>
-    <t>纪念值</t>
+    <t>The value of honor</t>
+  </si>
+  <si>
+    <t>荣誉值</t>
   </si>
 </sst>
 </file>
@@ -698,9 +698,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -719,7 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,6 +727,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,33 +754,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,15 +777,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,24 +824,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,14 +861,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -877,181 +877,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,26 +1067,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,16 +1114,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,9 +1145,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,148 +1167,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5" defaultRowHeight="17.6" outlineLevelCol="3"/>
